--- a/InterLSKInventory.xlsx
+++ b/InterLSKInventory.xlsx
@@ -824,7 +824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1456,7 +1458,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
